--- a/Component Selection/Component List.v3.xlsx
+++ b/Component Selection/Component List.v3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emin3\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\masaüstü\4.sınıf\1.dönem\EE463-Static Power Conversion 1\Term Project\Project\Component Selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAA67732-25C6-433D-B0DC-53F0E254BD86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD110586-55AA-4776-B2F2-7EF154661453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -860,10 +860,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -872,35 +901,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -1184,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,7 +1197,7 @@
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="117" customWidth="1"/>
+    <col min="9" max="9" width="143.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1228,7 +1228,7 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="1">
@@ -1254,11 +1254,11 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="30" t="s">
@@ -1278,11 +1278,11 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="30" t="s">
         <v>67</v>
       </c>
@@ -1300,9 +1300,9 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="32"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="30" t="s">
         <v>67</v>
       </c>
@@ -1320,11 +1320,11 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="30" t="s">
         <v>67</v>
       </c>
@@ -1342,11 +1342,11 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="32"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="1">
         <v>560</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="43" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="30" t="s">
@@ -1366,11 +1366,11 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="30" t="s">
         <v>67</v>
       </c>
@@ -1388,11 +1388,11 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="32"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="30" t="s">
         <v>67</v>
       </c>
@@ -1410,9 +1410,9 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="30" t="s">
         <v>67</v>
       </c>
@@ -1430,11 +1430,11 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="1">
         <v>240</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="43" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="30" t="s">
@@ -1454,11 +1454,11 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="30" t="s">
         <v>67</v>
       </c>
@@ -1476,11 +1476,11 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="32"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="43" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="30" t="s">
@@ -1500,11 +1500,11 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="32"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="30" t="s">
         <v>67</v>
       </c>
@@ -1522,11 +1522,11 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="30" t="s">
         <v>67</v>
       </c>
@@ -1544,9 +1544,9 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="30" t="s">
         <v>67</v>
       </c>
@@ -1564,11 +1564,11 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="32"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="1">
         <v>680</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="43" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="30" t="s">
@@ -1588,11 +1588,11 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="32"/>
-      <c r="C19" s="31">
+      <c r="B19" s="42"/>
+      <c r="C19" s="43">
         <v>820</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="30" t="s">
         <v>67</v>
       </c>
@@ -1610,9 +1610,9 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="30" t="s">
         <v>67</v>
       </c>
@@ -1630,11 +1630,11 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="32"/>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="30" t="s">
         <v>67</v>
       </c>
@@ -1652,9 +1652,9 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="32"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="30" t="s">
         <v>67</v>
       </c>
@@ -1672,11 +1672,11 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="31"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="30" t="s">
         <v>67</v>
       </c>
@@ -1694,11 +1694,11 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="30" t="s">
@@ -1718,11 +1718,11 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="32"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="30" t="s">
         <v>67</v>
       </c>
@@ -1740,11 +1740,11 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="32"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="30" t="s">
         <v>67</v>
       </c>
@@ -1762,7 +1762,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="42" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1788,7 +1788,7 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="32"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1812,7 +1812,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="32"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1845,16 +1845,16 @@
       <c r="D30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="31" t="s">
         <v>98</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="34">
         <v>5.9592999999999998</v>
       </c>
       <c r="I30" s="24" t="s">
@@ -1877,92 +1877,92 @@
       <c r="F31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="33" t="s">
         <v>100</v>
       </c>
       <c r="H31" s="1">
         <v>0.92964000000000002</v>
       </c>
-      <c r="I31" s="36" t="s">
+      <c r="I31" s="32" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31" t="s">
+      <c r="C32" s="43"/>
+      <c r="D32" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="43">
         <v>5.4778000000000002</v>
       </c>
-      <c r="I32" s="38" t="s">
+      <c r="I32" s="39" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="32"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="39"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="40"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="32"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="39"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="40"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="32"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="39"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="40"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="32"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="39"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="40"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="32"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="40"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="41"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="32"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
         <v>11</v>
@@ -1984,7 +1984,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="32"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
         <v>17</v>
@@ -2006,7 +2006,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="32"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
         <v>14</v>
@@ -2028,26 +2028,26 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44" t="s">
+      <c r="C41" s="37"/>
+      <c r="D41" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="E41" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="G41" s="44" t="s">
+      <c r="G41" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="H41" s="44">
+      <c r="H41" s="37">
         <v>1.62382</v>
       </c>
-      <c r="I41" s="45" t="s">
+      <c r="I41" s="38" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       <c r="H42" s="7">
         <v>1.6592</v>
       </c>
-      <c r="I42" s="42" t="s">
+      <c r="I42" s="35" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2086,6 +2086,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="H32:H37"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="F32:F37"/>
+    <mergeCell ref="G32:G37"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="B3:B26"/>
     <mergeCell ref="B27:B29"/>
@@ -2102,11 +2107,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="H32:H37"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="F32:F37"/>
-    <mergeCell ref="G32:G37"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -2163,7 +2163,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="44" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2175,7 +2175,7 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="13" t="s">
         <v>27</v>
       </c>
@@ -2187,7 +2187,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="34"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="7" t="s">
         <v>28</v>
       </c>
@@ -2210,7 +2210,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="44" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2222,7 +2222,7 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="34"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="13" t="s">
         <v>37</v>
       </c>
